--- a/Excels/Config/DefaultConfig.xlsx
+++ b/Excels/Config/DefaultConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E37ACF0-2DE1-4FE7-BAA1-700A8810B29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16015574-2F8E-4E2E-B28C-F90FE3B94F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7815" yWindow="4770" windowWidth="26130" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5550" yWindow="5445" windowWidth="26130" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,16 +38,10 @@
     <t>配置值</t>
   </si>
   <si>
-    <t>Game.Id</t>
+    <t>Scene.Main</t>
   </si>
   <si>
     <t>Scene.Menu</t>
-  </si>
-  <si>
-    <t>Scene.Main</t>
-  </si>
-  <si>
-    <t>GeminiLionLauncher</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,17 +367,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="35.625" customWidth="1"/>
+    <col min="3" max="4" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -410,25 +403,17 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
         <v>2</v>
       </c>
     </row>

--- a/Excels/Config/DefaultConfig.xlsx
+++ b/Excels/Config/DefaultConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16015574-2F8E-4E2E-B28C-F90FE3B94F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6B9175-0225-4737-A19C-8D7111E9459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="5445" windowWidth="26130" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="26130" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认配置</t>
   </si>
   <si>
     <t>配置项</t>
@@ -367,16 +364,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="4" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -386,34 +384,26 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
         <v>2</v>
       </c>
     </row>

--- a/Excels/Config/DefaultConfig.xlsx
+++ b/Excels/Config/DefaultConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6B9175-0225-4737-A19C-8D7111E9459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ED5D7D-41E9-4C40-B3D9-D53F63C3D392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="26130" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,14 @@
   </si>
   <si>
     <t>Scene.Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试纸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -407,6 +415,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excels/Config/DefaultConfig.xlsx
+++ b/Excels/Config/DefaultConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ED5D7D-41E9-4C40-B3D9-D53F63C3D392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078DEC65-FCE9-4850-920F-F6EFF68EFCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="2550" windowWidth="26130" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,14 +39,6 @@
   </si>
   <si>
     <t>Scene.Menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试纸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -415,14 +407,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excels/Config/DefaultConfig.xlsx
+++ b/Excels/Config/DefaultConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078DEC65-FCE9-4850-920F-F6EFF68EFCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C7DB1D-A888-4A0A-9857-114569E2516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="2550" windowWidth="26130" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9315" yWindow="5250" windowWidth="26130" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,13 +33,6 @@
   </si>
   <si>
     <t>配置值</t>
-  </si>
-  <si>
-    <t>Scene.Main</t>
-  </si>
-  <si>
-    <t>Scene.Menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -364,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -391,22 +384,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
